--- a/doc/性能测试.xlsx
+++ b/doc/性能测试.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单线程" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>hermes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +126,18 @@
   </si>
   <si>
     <t>读取字段数 vs 读取时间(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,10 +203,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,11 +549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427922368"/>
-        <c:axId val="427920688"/>
+        <c:axId val="219446080"/>
+        <c:axId val="219446640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="427922368"/>
+        <c:axId val="219446080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427920688"/>
+        <c:crossAx val="219446640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -591,7 +604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427920688"/>
+        <c:axId val="219446640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +655,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427922368"/>
+        <c:crossAx val="219446080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1599,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N5"/>
     </sheetView>
   </sheetViews>
@@ -1624,16 +1637,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -1681,19 +1694,19 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1">
@@ -1722,18 +1735,18 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1">
@@ -1762,16 +1775,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="1">
@@ -1823,16 +1836,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1842,12 +1855,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1859,12 +1872,12 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1883,4 +1896,383 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K5" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>80.185000000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>80.733999999999995</v>
+      </c>
+      <c r="L13" s="1">
+        <v>80.944999999999993</v>
+      </c>
+      <c r="M13" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1">
+        <v>65.8</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>66.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>